--- a/target/classes/com/qa/flipkart/testdata/testData.xlsx
+++ b/target/classes/com/qa/flipkart/testdata/testData.xlsx
@@ -37,19 +37,19 @@
     <t>state</t>
   </si>
   <si>
-    <t>Shobhit</t>
-  </si>
-  <si>
-    <t>Sahibabad</t>
-  </si>
-  <si>
-    <t>Mig-04 9/108 sec-3 Rajendra Nagar, Sahibabad</t>
-  </si>
-  <si>
     <t>Ghaziabad</t>
   </si>
   <si>
     <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>mig - test sc-test test nagar test city</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,25 +427,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>9871514671</v>
+      </c>
+      <c r="C2">
+        <v>201001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>9811454175</v>
-      </c>
-      <c r="C2">
-        <v>201005</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
